--- a/biology/Médecine/Henry_Blackwood_(médecin)/Henry_Blackwood_(médecin).xlsx
+++ b/biology/Médecine/Henry_Blackwood_(médecin)/Henry_Blackwood_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry_Blackwood_(m%C3%A9decin)</t>
+          <t>Henry_Blackwood_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Blackwood, dont le nom a été francisé en Henri Blackwood ou Henri Blacuod et latinisé en Henricus Blacuodæus, né à Paris le 24 mars 1588[1] et mort à Rouen le 17 décembre[2] 1634, est un médecin français d'origine écossaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Blackwood, dont le nom a été francisé en Henri Blackwood ou Henri Blacuod et latinisé en Henricus Blacuodæus, né à Paris le 24 mars 1588 et mort à Rouen le 17 décembre 1634, est un médecin français d'origine écossaise.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henry_Blackwood_(m%C3%A9decin)</t>
+          <t>Henry_Blackwood_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son oncle était Adam Blackwood, conseiller de Marie Stuart. Son père, appelé également Henry Blackwood, fut professeur de philosophie à l'université de Paris, puis doyen de la faculté de médecine[3].
-Devenu médecin comme son père, Henry Blackwood entra comme professeur de médecine au Collège royal en 1624. Au bout de trois ans, il renonça à sa chaire pour se rendre à Rome auprès du pape Urbain VII, qui l'estimait beaucoup. Les médecins de la ville, jaloux de la faveur dont il jouissait auprès du souverain pontife, le persécutèrent avec tant d'acharnement qu'il fut obligé de se réfugier à Venise et, bientôt après, de revenir à Paris. Il mourut subitement à Rouen à l'âge de 46 ans[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son oncle était Adam Blackwood, conseiller de Marie Stuart. Son père, appelé également Henry Blackwood, fut professeur de philosophie à l'université de Paris, puis doyen de la faculté de médecine.
+Devenu médecin comme son père, Henry Blackwood entra comme professeur de médecine au Collège royal en 1624. Au bout de trois ans, il renonça à sa chaire pour se rendre à Rome auprès du pape Urbain VII, qui l'estimait beaucoup. Les médecins de la ville, jaloux de la faveur dont il jouissait auprès du souverain pontife, le persécutèrent avec tant d'acharnement qu'il fut obligé de se réfugier à Venise et, bientôt après, de revenir à Paris. Il mourut subitement à Rouen à l'âge de 46 ans.
 Selon la Biographie universelle de Michaud, Henry Blackwood « était un homme de beaucoup de talent, mais très inconstant, philosophe, orateur, médecin, soldat, courtisan, voyageur, et intrigant dans tous ces états ». On connaît de lui une quinzaine d'ouvrages médicaux, dont une traduction en latin des Pronostics d'Hippocrate.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henry_Blackwood_(m%C3%A9decin)</t>
+          <t>Henry_Blackwood_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ergo evacuationi immodicum potius quam retentioni medendum (1570)
 Ergo partus octimestris non vitalis (1579)
